--- a/scam17_revision.xlsx
+++ b/scam17_revision.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ScratchVars\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4440" activeTab="1"/>
+    <workbookView xWindow="51140" yWindow="0" windowWidth="28860" windowHeight="17040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rev1" sheetId="1" r:id="rId1"/>
     <sheet name="rev2" sheetId="2" r:id="rId2"/>
+    <sheet name="rev3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>Using the term readability vs understandability</t>
   </si>
@@ -325,21 +324,120 @@
 I added to the story the research on difficulties faced by learners in Abstract/Related Work/Conclusion citing the Kolling et. al.</t>
   </si>
   <si>
-    <t>Fig. 7 shows the data for scratch projects. Comparison with the other PL languages is statistcally performed, but the original data itself is not presented in our paper. It is not clear to me what the reviewer means by supporting data here</t>
-  </si>
-  <si>
     <t xml:space="preserve">To Do: check </t>
   </si>
   <si>
     <t>To Do
 Change the graph by excluding the 11th item</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>Could it be novice programmers erfer longer names?</t>
+  </si>
+  <si>
+    <t>The reviewer essentially asks whether the phenomen we observe should be attributed to Scratch as a programming language or to the level of familiarity with programming as such.</t>
+  </si>
+  <si>
+    <t>Nice inclusion of implications</t>
+  </si>
+  <si>
+    <t>Indeed</t>
+  </si>
+  <si>
+    <t>None required</t>
+  </si>
+  <si>
+    <t>p.1</t>
+  </si>
+  <si>
+    <t>suggesting TO the learner</t>
+  </si>
+  <si>
+    <t>already fixed</t>
+  </si>
+  <si>
+    <t>p.2</t>
+  </si>
+  <si>
+    <t>Broken box</t>
+  </si>
+  <si>
+    <t>To be fixed</t>
+  </si>
+  <si>
+    <t>p.5</t>
+  </si>
+  <si>
+    <t>Add a full stop after [35]</t>
+  </si>
+  <si>
+    <t>Choice of newer stat. test well-justified</t>
+  </si>
+  <si>
+    <t>pp.6-7</t>
+  </si>
+  <si>
+    <t>Move Fig 8 (repetition blocks) to the previous page.</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>p.7</t>
+  </si>
+  <si>
+    <t>Expectations &amp; contradictions clearly stated to ease interpretations if results</t>
+  </si>
+  <si>
+    <t>Includes concrete examples to explain results</t>
+  </si>
+  <si>
+    <t>Figures out of order</t>
+  </si>
+  <si>
+    <t>We follow the order of Observations a)-c) not of figures</t>
+  </si>
+  <si>
+    <t>p.8</t>
+  </si>
+  <si>
+    <t>Would be really interesting to see for the other PLs!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.9 </t>
+  </si>
+  <si>
+    <t>Missing related work: But does this hold for other languages see Libelit in PPIG 2016 for Java</t>
+  </si>
+  <si>
+    <t>p.10</t>
+  </si>
+  <si>
+    <t>Perhaps other name analysis is also relevant, like Einar Host?</t>
+  </si>
+  <si>
+    <t>Fig. 7 shows the data for scratch projects. Comparison with the other PL languages is statistcally performed, but the original data itself is not presented in our paper. It is not clear to me what the reviewer means by supporting data here. Alexander: we state in V-A that in Scratch the single-letter variables constitute ca. 4%, while Beniamini et al. have observed 9-20%. I've added explicit percentages in the box.</t>
+  </si>
+  <si>
+    <t>Changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right. This is a consequence of me being an idiot and mixing different distance metrics. </t>
+  </si>
+  <si>
+    <t>p &lt; 2.2*10^-16</t>
+  </si>
+  <si>
+    <t>Changed. "too small to be computed precisely"---floating point numbers underflow.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +478,22 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -432,8 +546,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -465,7 +583,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -552,7 +674,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,7 +709,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -764,7 +886,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,20 +897,20 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="65.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="58" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="19.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -805,7 +927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="110.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="110.25" customHeight="1" thickTop="1">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -822,7 +944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="64">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -839,7 +961,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="48">
       <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
@@ -856,7 +978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="96">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -873,7 +995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="64">
       <c r="A6" s="5" t="s">
         <v>52</v>
       </c>
@@ -888,7 +1010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="48">
       <c r="A7" s="5" t="s">
         <v>53</v>
       </c>
@@ -905,7 +1027,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="112">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -920,7 +1042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -928,7 +1050,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -936,21 +1063,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="56.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="56.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="56.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="56.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="55.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -967,7 +1094,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="122.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="215" customHeight="1" thickTop="1">
       <c r="A2" s="6" t="s">
         <v>23</v>
       </c>
@@ -984,7 +1111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="80">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -1001,7 +1128,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="189.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="5" customFormat="1" ht="128">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1009,13 +1136,13 @@
         <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="128">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
@@ -1026,13 +1153,13 @@
         <v>21</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="279.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="279.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="64">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -1056,13 +1183,13 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="128">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1074,10 +1201,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="32">
       <c r="A9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1091,10 +1218,10 @@
         <v>40</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="5" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="5" customFormat="1" ht="32">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
@@ -1111,7 +1238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="128">
       <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
@@ -1123,10 +1250,199 @@
         <v>45</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="3" max="3" width="57.83203125" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickTop="1">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/scam17_revision.xlsx
+++ b/scam17_revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28028"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51140" yWindow="0" windowWidth="28860" windowHeight="17040" activeTab="1"/>
+    <workbookView xWindow="51160" yWindow="0" windowWidth="28800" windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="rev1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="102">
   <si>
     <t>Using the term readability vs understandability</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Other ways of answering the “So what” question. For example, the importance of good models and by the extension the importance of modeling the kind of naming that programmers should strive for. There is evidence for this from the study presented</t>
-  </si>
-  <si>
-    <t>To Alexander</t>
   </si>
   <si>
     <t>It is not a complete speculation. We can cite (Kölling, Brown and Altadmri, 2015) which highlights many issues related to readability when transiting to textual language. We can alter the sentence then to: our results give a support to previous research that naming can contribute to difficult transition to …
@@ -241,10 +238,6 @@
     <t>Changed</t>
   </si>
   <si>
-    <t xml:space="preserve">If the reviewer asking about the absence of the number "12", then I think he got the figure wrong since we do not report the sequence of numbers from 1. Number 9 is also missing for example.
-If he is referring to the fact that we are reporting 11 items (not 10 and not 12) i think it is a good point unless we had a threshold for that, otherwise we can report the 10-most-common numbers  </t>
-  </si>
-  <si>
     <t>Nothing</t>
   </si>
   <si>
@@ -277,9 +270,6 @@
     <t>Nice to have again, but limited time to investigate</t>
   </si>
   <si>
-    <t xml:space="preserve">We focus on the "readability" as a term in many places. Comprehension is only mentione in the related work section. My personal position is that comprehension needs more investigation with the users and this is not the scope of the paper. We can still check the references and maybe cite one of them if needed </t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
@@ -288,21 +278,6 @@
   </si>
   <si>
     <t>Probably nothing</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We tried to exclude the IDE factor from our results. For example, by excluding sprite names. However, in some cases </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">we can highlight further the role of the IDE factors for the x and y variables </t>
-    </r>
   </si>
   <si>
     <r>
@@ -324,13 +299,6 @@
 I added to the story the research on difficulties faced by learners in Abstract/Related Work/Conclusion citing the Kolling et. al.</t>
   </si>
   <si>
-    <t xml:space="preserve">To Do: check </t>
-  </si>
-  <si>
-    <t>To Do
-Change the graph by excluding the 11th item</t>
-  </si>
-  <si>
     <t>abstract</t>
   </si>
   <si>
@@ -431,13 +399,73 @@
   </si>
   <si>
     <t>Changed. "too small to be computed precisely"---floating point numbers underflow.</t>
+  </si>
+  <si>
+    <t>Yes, this is because we consider each language as inducing two separate distributions, one for the lower and one for the upper case letters. I've tried to clarify this a bit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Changed: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Noteworthy Light"/>
+        <family val="1"/>
+      </rPr>
+      <t>﻿F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>or each language we consider two distributions: the distribution of the lower case letters (`a', ..., `z') and the distribution of the lower case letters (`A', ..., `Z').</t>
+    </r>
+  </si>
+  <si>
+    <t>If the reviewer asking about the absence of the number "12", then I think he got the figure wrong since we do not report the sequence of numbers from 1. Number 9 is also missing for example.
+If he is referring to the fact that we are reporting 11 items (not 10 and not 12) i think it is a good point unless we had a threshold for that, otherwise we can report the 10-most-common numbers.  Alexander: I've just dropped the reference to 1-12, this is probably what has confused the reviewer.</t>
+  </si>
+  <si>
+    <t>Added a reference to Høst's PhD thesis</t>
+  </si>
+  <si>
+    <t>Changed, moved up to IV-C.</t>
+  </si>
+  <si>
+    <t>We focus on the "readability" as a term in many places. Comprehension is only mentione in the related work section. My personal position is that comprehension needs more investigation with the users and this is not the scope of the paper. We can still check the references and maybe cite one of them if needed. Alexander: Buse et al. use maximal/average identifier length in their readability prediction model, added in the related work list. Posnett et al (MSR 2011) replaces a more complex Buse model with a much simpler one based on the Halstead metrics but as such they do not include identifier name length, ignored. The textual features paper of Scalabrino is related to presence of identifiers in the dictionary, so ok, added.</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>[31] is Moreno Robles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We tried to exclude the IDE factor from our results. For example, by excluding sprite names. However, in some cases </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>we can highlight further the role of the IDE factors for the x and y variables ; [31] is Moreno Robles</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +523,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Noteworthy Light"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -546,8 +580,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -583,11 +619,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -896,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -912,19 +950,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="110.25" customHeight="1" thickTop="1">
@@ -938,10 +976,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="64">
@@ -955,15 +993,15 @@
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="48">
       <c r="A4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -972,74 +1010,76 @@
         <v>7</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="96">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="64">
       <c r="A6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="48">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="112">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1063,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1079,178 +1119,178 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="215" customHeight="1" thickTop="1">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="80">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" ht="128">
       <c r="A4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="5" customFormat="1" ht="128">
       <c r="A5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="5" customFormat="1" ht="279.75" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="5" customFormat="1" ht="64">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="5" customFormat="1" ht="128">
       <c r="A8" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="5" customFormat="1" ht="32">
       <c r="A9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="9" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="5" customFormat="1" ht="32">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="5" customFormat="1" ht="128">
+    </row>
+    <row r="11" spans="1:5" s="5" customFormat="1" ht="160">
       <c r="A11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1309,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1281,159 +1321,165 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
